--- a/src/test/resources/testdata2.xlsx
+++ b/src/test/resources/testdata2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://capgemini-my.sharepoint.com/personal/sravani_madasu_capgemini_com/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SMADASU\IdeaProjects\Cucumber1\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4E15DDE-365C-414F-AE3F-BF3CD24B832E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D90838C-A43D-4EEB-AB41-FCB6F681027F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4CC90BFB-9949-477D-B756-30DADA1FDB9D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Tc_Name</t>
   </si>
@@ -50,9 +50,6 @@
     <t>mobiles</t>
   </si>
   <si>
-    <t>Verify that the selected product is displayed on the product detail page with all the relevant information</t>
-  </si>
-  <si>
     <t>Test the functionality of the filters (e.g. price range, product type, etc.)</t>
   </si>
   <si>
@@ -66,6 +63,15 @@
   </si>
   <si>
     <t>handbags</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that the selected product is displayed on the product detail page </t>
+  </si>
+  <si>
+    <t>check if the cart is accessible</t>
+  </si>
+  <si>
+    <t>add to cart</t>
   </si>
 </sst>
 </file>
@@ -417,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD49BC75-9106-45BE-97C7-B2B930371A82}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -448,26 +454,34 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testdata2.xlsx
+++ b/src/test/resources/testdata2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SMADASU\IdeaProjects\Cucumber1\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D90838C-A43D-4EEB-AB41-FCB6F681027F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCC17A12-C19F-4ABA-86B6-C8604ACC295E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4CC90BFB-9949-477D-B756-30DADA1FDB9D}"/>
   </bookViews>
@@ -41,37 +41,38 @@
     <t>Tc_Name</t>
   </si>
   <si>
-    <t>verify that user able to search the product</t>
-  </si>
-  <si>
     <t>SearchProduct</t>
   </si>
   <si>
     <t>mobiles</t>
   </si>
   <si>
-    <t>Test the functionality of the filters (e.g. price range, product type, etc.)</t>
-  </si>
-  <si>
-    <t>Verify that the filtered results are displayed correctly</t>
-  </si>
-  <si>
-    <t>lipsticks</t>
-  </si>
-  <si>
     <t>,ass';l;kd;andl,s'jlkadlkd;</t>
   </si>
   <si>
-    <t>handbags</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify that the selected product is displayed on the product detail page </t>
-  </si>
-  <si>
-    <t>check if the cart is accessible</t>
-  </si>
-  <si>
     <t>add to cart</t>
+  </si>
+  <si>
+    <t>verify that user display product</t>
+  </si>
+  <si>
+    <t>verify that no results found</t>
+  </si>
+  <si>
+    <t xml:space="preserve">perfumeBella Vita Luxury Man Perfume Gift Set for Men 4x20 ml Perfumes Luxury Scent with Long Lasting Fragrance
+    </t>
+  </si>
+  <si>
+    <t>Verify that the user can able to search a product</t>
+  </si>
+  <si>
+    <t>Verify that the selected product is displayed on the product detail page</t>
+  </si>
+  <si>
+    <t>Check if the add to cart is accessible</t>
+  </si>
+  <si>
+    <t>lipstick</t>
   </si>
 </sst>
 </file>
@@ -107,8 +108,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -426,7 +433,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -441,39 +448,39 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -481,10 +488,11 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/test/resources/testdata2.xlsx
+++ b/src/test/resources/testdata2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SMADASU\IdeaProjects\Cucumber1\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCC17A12-C19F-4ABA-86B6-C8604ACC295E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBA355FA-97E6-486D-A5C4-3F58B6180AA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4CC90BFB-9949-477D-B756-30DADA1FDB9D}"/>
   </bookViews>
@@ -432,9 +432,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD49BC75-9106-45BE-97C7-B2B930371A82}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>

--- a/src/test/resources/testdata2.xlsx
+++ b/src/test/resources/testdata2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SMADASU\IdeaProjects\Cucumber1\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBA355FA-97E6-486D-A5C4-3F58B6180AA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4B256C4-2C5C-430C-9FB2-A4B1A738A4E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4CC90BFB-9949-477D-B756-30DADA1FDB9D}"/>
   </bookViews>
@@ -53,26 +53,25 @@
     <t>add to cart</t>
   </si>
   <si>
-    <t>verify that user display product</t>
-  </si>
-  <si>
-    <t>verify that no results found</t>
-  </si>
-  <si>
-    <t xml:space="preserve">perfumeBella Vita Luxury Man Perfume Gift Set for Men 4x20 ml Perfumes Luxury Scent with Long Lasting Fragrance
-    </t>
-  </si>
-  <si>
     <t>Verify that the user can able to search a product</t>
   </si>
   <si>
-    <t>Verify that the selected product is displayed on the product detail page</t>
-  </si>
-  <si>
-    <t>Check if the add to cart is accessible</t>
-  </si>
-  <si>
     <t>lipstick</t>
+  </si>
+  <si>
+    <t>perfume</t>
+  </si>
+  <si>
+    <t>Verify that the selected product is displayed on the product detail page of amazon</t>
+  </si>
+  <si>
+    <t>verify that user display product detail page</t>
+  </si>
+  <si>
+    <t>verify that wrong text entered</t>
+  </si>
+  <si>
+    <t>verify that user enters from amazon to flipkart</t>
   </si>
 </sst>
 </file>
@@ -432,7 +431,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD49BC75-9106-45BE-97C7-B2B930371A82}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -451,7 +452,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -459,7 +460,7 @@
     </row>
     <row r="3" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>7</v>
@@ -467,15 +468,15 @@
     </row>
     <row r="4" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -483,7 +484,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
